--- a/4 Conditional Formatting/Conditional Formatting - 1. Highlight Cells Rules.xlsx
+++ b/4 Conditional Formatting/Conditional Formatting - 1. Highlight Cells Rules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Analyst Builder\9.0 Excel for Data Analysis\5.5 Conditional Formatting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4879da3f5c650214/Desktop/Excel-for-Data-Analysis - Copy/4 Conditional Formatting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B41CD875-D3AE-4B96-AC40-C84D355A57B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{B41CD875-D3AE-4B96-AC40-C84D355A57B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9797A9E9-500D-4118-A841-6DB245F6E482}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{94C39369-CB0B-42C0-9EC9-550FA6C4F019}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{94C39369-CB0B-42C0-9EC9-550FA6C4F019}"/>
   </bookViews>
   <sheets>
     <sheet name="Highlight Cells" sheetId="2" r:id="rId1"/>
@@ -307,19 +307,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -361,11 +349,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor theme="4"/>
@@ -406,9 +389,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -446,7 +429,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -552,7 +535,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -694,7 +677,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -704,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A73475-69BA-4118-9887-C70767B4734A}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScale="108" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1185,7 +1168,19 @@
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A16:D16"/>
   </mergeCells>
+  <conditionalFormatting sqref="B2:M2">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
+      <formula>320</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:M11">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="between">
+      <formula>100</formula>
+      <formula>200</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1194,7 +1189,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView zoomScale="176" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1292,6 +1287,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:A11">
+    <cfRule type="timePeriod" dxfId="3" priority="2" timePeriod="lastMonth">
+      <formula>AND(MONTH(A2)=MONTH(EDATE(TODAY(),0-1)),YEAR(A2)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B11">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="1TB">
+      <formula>NOT(ISERROR(SEARCH("1TB",B2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1300,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E0388B-783F-4603-B6DF-1EEB040B5761}">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView zoomScale="131" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1470,6 +1475,9 @@
       <sortCondition ref="A1:A31"/>
     </sortState>
   </autoFilter>
+  <conditionalFormatting sqref="A2:A31">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A6" r:id="rId1" xr:uid="{A5B30854-AEE9-4819-9C2D-1F4E79016334}"/>
     <hyperlink ref="A17" r:id="rId2" xr:uid="{FE640D21-23C9-4FB8-A7EE-42A25DF53315}"/>
